--- a/SUITE DE PRUEBAS - WEB BUGGY CARS.xlsx
+++ b/SUITE DE PRUEBAS - WEB BUGGY CARS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -283,6 +283,45 @@
 2. poner usuario , clave y clic en login
 3.click in overall Rating para votar
 4. clic en en el coche que ya se voto anteriormente.
+</t>
+  </si>
+  <si>
+    <t>Actualizar perfil con campos obligatorios en blanco</t>
+  </si>
+  <si>
+    <t>1. Abrir la pagina.
+2. poner usuario , clave y clic en login
+3.clic profile cambia contraseña.
+4. Dejar campo nombre y apellido vacio
+5.Click en guardar</t>
+  </si>
+  <si>
+    <t>el sitio debe validar campos requeridos vacios y mostrar un mensaje de error al usuario</t>
+  </si>
+  <si>
+    <t>El usuario puede dejar un comentario al momento de votar.</t>
+  </si>
+  <si>
+    <t>El contador de votos se incrementa cada vez que se vota por un auto.</t>
+  </si>
+  <si>
+    <t>Dejar un comentario cuando este votando</t>
+  </si>
+  <si>
+    <t>verificar que el contador se ha incrmentado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Abrir la pagina.
+2. poner usuario , clave y clic en login
+3.click in overall Rating para votar
+4. Dejar un comentario
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Abrir la pagina.
+2. poner usuario , clave y clic en login
+3.click in overall Rating para votar
+4. observar que el contador cambia al votar
 </t>
   </si>
 </sst>
@@ -516,6 +555,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -539,15 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,6 +1078,196 @@
         <a:xfrm>
           <a:off x="7850188" y="15422240"/>
           <a:ext cx="2619597" cy="1532260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96814</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1976438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7923189" y="12676188"/>
+          <a:ext cx="1879624" cy="1976975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1242697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7822407" y="19228595"/>
+          <a:ext cx="1714499" cy="1242696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1214437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7881937" y="20443031"/>
+          <a:ext cx="2274094" cy="895477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1714499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1242696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7822406" y="21240750"/>
+          <a:ext cx="1714499" cy="1242696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>59530</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1214436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2333624</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7881936" y="22455186"/>
+          <a:ext cx="2274094" cy="895477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1328,27 +1557,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1362,7 +1591,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
@@ -1374,7 +1603,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
@@ -1392,27 +1621,27 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="26">
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1426,7 +1655,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1667,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1462,27 +1691,27 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="26">
         <v>3</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1496,7 +1725,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1737,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
@@ -1540,10 +1769,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,17 +1789,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1608,17 +1837,17 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -1630,16 +1859,16 @@
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="21" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1656,7 +1885,7 @@
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1682,10 +1911,10 @@
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1708,10 +1937,10 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1734,10 +1963,10 @@
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1760,10 +1989,10 @@
       <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1777,16 +2006,16 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1798,10 +2027,10 @@
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="20" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1824,10 +2053,10 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1840,17 +2069,43 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -1862,7 +2117,7 @@
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1888,7 +2143,7 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1904,17 +2159,69 @@
         <v>24</v>
       </c>
     </row>
+    <row r="20" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
